--- a/data/trans_dic/P44A$analisis-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2610769039990843</v>
+        <v>0.2784277970608445</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2088247024365498</v>
+        <v>0.2145518433603893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06703155412748794</v>
+        <v>0.06559306933471785</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1937892063804066</v>
+        <v>0.1895828055615559</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2702518080981395</v>
+        <v>0.2755681046136319</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09417165775484632</v>
+        <v>0.09581103623593175</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2596980398156407</v>
+        <v>0.2504235067698077</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2783237611666489</v>
+        <v>0.2743309437038073</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09476185188793047</v>
+        <v>0.09493234135320322</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5919568017127711</v>
+        <v>0.599960708230159</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4493641321346984</v>
+        <v>0.4585122161386827</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1575744979075407</v>
+        <v>0.1593220337294389</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.422199324761329</v>
+        <v>0.4170494926361102</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5272257031428758</v>
+        <v>0.5425646869573573</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1698564464812866</v>
+        <v>0.1705789496445548</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.454784121161331</v>
+        <v>0.4370527148976288</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4656437056522329</v>
+        <v>0.4534690166158853</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1524049782459575</v>
+        <v>0.1539547067453688</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2083820399896301</v>
+        <v>0.1983259514152338</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2701063495027742</v>
+        <v>0.2730177788130143</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1189551814353646</v>
+        <v>0.1217566808105648</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.182591208281312</v>
+        <v>0.1706611245222244</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1517667457126701</v>
+        <v>0.145623413751029</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09182974299437169</v>
+        <v>0.09553177633762532</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2277737223978295</v>
+        <v>0.2341696277732156</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2581601663680542</v>
+        <v>0.2589926998709924</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1159286965383661</v>
+        <v>0.1162811651784453</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4921213303523994</v>
+        <v>0.4917930899255919</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4943815377739352</v>
+        <v>0.5029331437735538</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.200920641050388</v>
+        <v>0.2041682293958301</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5555385961348983</v>
+        <v>0.5552549019087069</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4560470699219753</v>
+        <v>0.4412234986964128</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1607693837993957</v>
+        <v>0.1620304939942987</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4552066485361092</v>
+        <v>0.459340978735293</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4444994280581089</v>
+        <v>0.4488545568982686</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.171157649244134</v>
+        <v>0.1666958582690704</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.3087165314841784</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.07301045707571727</v>
+        <v>0.07301045707571728</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.3631087021261225</v>
@@ -882,7 +882,7 @@
         <v>0.3763371208138696</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.09304381709251848</v>
+        <v>0.09304381709251849</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1290300076140948</v>
+        <v>0.1289587661596637</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2308517400505627</v>
+        <v>0.2337134460503192</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06535993792626979</v>
+        <v>0.0620895855020437</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1497008937266061</v>
+        <v>0.0901652372244849</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0701039229502691</v>
+        <v>0.1068617787691041</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03998651762431779</v>
+        <v>0.04038693617813139</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1733669598938461</v>
+        <v>0.1817887349887145</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2361561023301548</v>
+        <v>0.2354299017143896</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06254679674140391</v>
+        <v>0.06625647791158948</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6694321136775286</v>
+        <v>0.6548077477334034</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6340338043941082</v>
+        <v>0.603121084468327</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1674822569783586</v>
+        <v>0.1721400197179648</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6723521004870797</v>
+        <v>0.7030006389456842</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6293720681901237</v>
+        <v>0.627817218196127</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1263781316099096</v>
+        <v>0.1231844444675395</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5649737245571854</v>
+        <v>0.5777877441521884</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5409947633110017</v>
+        <v>0.5396119905654742</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1315209894495082</v>
+        <v>0.1351422161505252</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2814655459626043</v>
+        <v>0.2830395218135471</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2918962379263519</v>
+        <v>0.2921068402404053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1052584166364681</v>
+        <v>0.1079088439635773</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2276574923104527</v>
+        <v>0.2290914281876526</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2543619147124025</v>
+        <v>0.2599548843815487</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09713917287599012</v>
+        <v>0.09699602114165572</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2781727509534949</v>
+        <v>0.282797018679693</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.295854521411792</v>
+        <v>0.3017584788690366</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1091309101297168</v>
+        <v>0.1087679328110442</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4778163836278409</v>
+        <v>0.4826284455048975</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4420572832739484</v>
+        <v>0.4422695636634817</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1598206920962195</v>
+        <v>0.159081446143541</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4142694525983193</v>
+        <v>0.4220462882813167</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4436151296030427</v>
+        <v>0.4404092892824262</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1414757185727755</v>
+        <v>0.1388200890347921</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4166335140411277</v>
+        <v>0.4273370598513966</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4138432599725326</v>
+        <v>0.4173997199322357</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1436968114865579</v>
+        <v>0.1427493990300256</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11763</v>
+        <v>12545</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10800</v>
+        <v>11096</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10021</v>
+        <v>9806</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12192</v>
+        <v>11927</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>16786</v>
+        <v>17117</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>17595</v>
+        <v>17902</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>28039</v>
+        <v>27038</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>31682</v>
+        <v>31227</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>31872</v>
+        <v>31930</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26672</v>
+        <v>27032</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23239</v>
+        <v>23712</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23557</v>
+        <v>23818</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26561</v>
+        <v>26237</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>32748</v>
+        <v>33701</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>31737</v>
+        <v>31872</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>49102</v>
+        <v>47188</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>53004</v>
+        <v>51618</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>51260</v>
+        <v>51781</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10366</v>
+        <v>9866</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21090</v>
+        <v>21317</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>34472</v>
+        <v>35284</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5558</v>
+        <v>5195</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5531</v>
+        <v>5307</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22481</v>
+        <v>23388</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>18265</v>
+        <v>18778</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>29565</v>
+        <v>29661</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>61976</v>
+        <v>62165</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24482</v>
+        <v>24465</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>38601</v>
+        <v>39269</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>58226</v>
+        <v>59167</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16912</v>
+        <v>16903</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>16620</v>
+        <v>16080</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39359</v>
+        <v>39667</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>36502</v>
+        <v>36834</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>50905</v>
+        <v>51404</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>91502</v>
+        <v>89117</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6682</v>
+        <v>6764</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8465</v>
+        <v>8042</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1870</v>
+        <v>1126</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1132</v>
+        <v>1725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3863</v>
+        <v>3902</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4690</v>
+        <v>4918</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10648</v>
+        <v>10615</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>14143</v>
+        <v>14982</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9749</v>
+        <v>9536</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18351</v>
+        <v>17456</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21692</v>
+        <v>22295</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8397</v>
+        <v>8780</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10160</v>
+        <v>10135</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12209</v>
+        <v>11901</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15284</v>
+        <v>15630</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>24392</v>
+        <v>24329</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>29740</v>
+        <v>30559</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>30783</v>
+        <v>30955</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>46336</v>
+        <v>46369</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>59872</v>
+        <v>61379</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>24096</v>
+        <v>24248</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>29175</v>
+        <v>29817</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>51315</v>
+        <v>51240</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>59865</v>
+        <v>60860</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>80898</v>
+        <v>82513</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>119725</v>
+        <v>119326</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>52257</v>
+        <v>52783</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>70172</v>
+        <v>70206</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>90907</v>
+        <v>90487</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>43848</v>
+        <v>44671</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>50883</v>
+        <v>50515</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>74737</v>
+        <v>73334</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>89663</v>
+        <v>91967</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>113161</v>
+        <v>114134</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>157646</v>
+        <v>156607</v>
       </c>
     </row>
     <row r="20">
